--- a/06-22-25 to 06-28-25 Milwaukee Schedule.xlsx
+++ b/06-22-25 to 06-28-25 Milwaukee Schedule.xlsx
@@ -2393,7 +2393,11 @@
           <t>Lexi</t>
         </is>
       </c>
-      <c r="S40" t="inlineStr"/>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Until 11:00</t>
+        </is>
+      </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>

--- a/06-22-25 to 06-28-25 Milwaukee Schedule.xlsx
+++ b/06-22-25 to 06-28-25 Milwaukee Schedule.xlsx
@@ -1090,7 +1090,7 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>Caitlin</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="W16" t="inlineStr"/>
@@ -1141,7 +1141,7 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W17" t="inlineStr"/>
@@ -1192,7 +1192,7 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="W18" t="inlineStr"/>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="W19" t="inlineStr"/>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>NasZire</t>
         </is>
       </c>
       <c r="W20" t="inlineStr"/>
@@ -1358,7 +1358,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>NasZire</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="W21" t="inlineStr"/>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W22" t="inlineStr"/>
@@ -1448,10 +1448,14 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr"/>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
     </row>
@@ -1503,7 +1507,7 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
@@ -1570,7 +1574,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
@@ -1630,7 +1634,7 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
@@ -1678,21 +1682,9 @@
       </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
     </row>
@@ -1773,7 +1765,11 @@
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>COURTESY MEET</t>
+        </is>
+      </c>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
@@ -1822,7 +1818,7 @@
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr">
         <is>
-          <t>COURTESY MEET</t>
+          <t>5:30 AM MEET BAYSHORE</t>
         </is>
       </c>
       <c r="W30" t="inlineStr"/>
@@ -1873,7 +1869,7 @@
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr">
         <is>
-          <t>5:30 AM MEET BAYSHORE</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W31" t="inlineStr"/>
@@ -1912,7 +1908,7 @@
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W32" t="inlineStr"/>
@@ -1963,7 +1959,7 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>DHILLON'S STATION 60 LLC, GRAFTON</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -2002,15 +1998,20 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Caitlin</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Driver,
+Stools</t>
+        </is>
+      </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>DHILLON'S STATION 60 LLC, GRAFTON</t>
+          <t>1185 N PORT WASHINGTON RD</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -2057,20 +2058,15 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>Driver,
-Stools</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>1185 N PORT WASHINGTON RD</t>
+          <t>https://maps.app.goo.gl/j6V8me3CPcLfC84u6</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2125,17 +2121,17 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Stools</t>
+        </is>
+      </c>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/j6V8me3CPcLfC84u6</t>
-        </is>
-      </c>
+      <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
@@ -2188,18 +2184,27 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>Stools</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Driver,
+Santa Fe, Equip</t>
+        </is>
+      </c>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
     </row>
@@ -2251,25 +2256,28 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Rx</t>
+        </is>
+      </c>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>Driver,
-Santa Fe, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X38" t="inlineStr"/>
@@ -2327,30 +2335,26 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>Rx</t>
+          <t>Until 11:00</t>
         </is>
       </c>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
     </row>
@@ -2390,25 +2394,13 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>Until 11:00</t>
-        </is>
-      </c>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>Leyna</t>
-        </is>
-      </c>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
@@ -2449,7 +2441,7 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -2496,13 +2488,17 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>NasZire</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
@@ -2555,7 +2551,7 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>NasZire</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
@@ -2563,7 +2559,7 @@
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>MODAS/WINTAKES</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
@@ -2618,7 +2614,7 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
@@ -2626,7 +2622,7 @@
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr">
         <is>
-          <t>MODAS/WINTAKES</t>
+          <t>ROETTGERS SHOREWOOD ARC</t>
         </is>
       </c>
       <c r="W44" t="inlineStr"/>
@@ -2682,7 +2678,7 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="S45" t="inlineStr"/>
@@ -2690,7 +2686,7 @@
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr">
         <is>
-          <t>ROETTGERS SHOREWOOD ARC</t>
+          <t>1513 E CAPITOL DRIVE</t>
         </is>
       </c>
       <c r="W45" t="inlineStr"/>
@@ -2751,15 +2747,19 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr"/>
+          <t>Tanner</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>w/ Carlie</t>
+        </is>
+      </c>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr">
         <is>
-          <t>1513 E CAPITOL DRIVE</t>
+          <t>https://maps.app.goo.gl/JvTBo1JUL5gfYk126</t>
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
@@ -2814,7 +2814,7 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Tanner</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -2824,11 +2824,7 @@
       </c>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/JvTBo1JUL5gfYk126</t>
-        </is>
-      </c>
+      <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
@@ -2877,18 +2873,31 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>w/ Carlie</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr"/>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>White Camry available, Equip</t>
+        </is>
+      </c>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
     </row>
@@ -2949,31 +2958,26 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="W49" t="inlineStr">
-        <is>
-          <t>White Camry available, Equip</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
     </row>
@@ -3022,32 +3026,12 @@
         </is>
       </c>
       <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>18)</t>
-        </is>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>Kayla</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V50" t="inlineStr">
-        <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
@@ -3153,11 +3137,19 @@
       </c>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>LEAVE OFFICE 4:15 AM</t>
+        </is>
+      </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>6:00 AM MEET WATERTOWN PLANK</t>
+        </is>
+      </c>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
@@ -3207,7 +3199,7 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>LEAVE OFFICE 4:15 AM</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
@@ -3215,7 +3207,7 @@
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr">
         <is>
-          <t>6:00 AM MEET WATERTOWN PLANK</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="W53" t="inlineStr"/>
@@ -3270,15 +3262,19 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr"/>
+          <t>MODAS-SCAN</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>FULL STORE</t>
+        </is>
+      </c>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W54" t="inlineStr"/>
@@ -3333,19 +3329,15 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>FULL STORE</t>
-        </is>
-      </c>
+          <t>ONEIDA #2021 ONE STOP 54, ONEIDA</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>CONDON OIL #195, THERESA</t>
         </is>
       </c>
       <c r="W55" t="inlineStr"/>
@@ -3397,7 +3389,7 @@
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
-          <t>ONEIDA #2021 ONE STOP 54, ONEIDA</t>
+          <t>W180 HWY 54</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
@@ -3405,7 +3397,7 @@
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr">
         <is>
-          <t>CONDON OIL #195, THERESA</t>
+          <t>213 N MILWAUKEE</t>
         </is>
       </c>
       <c r="W56" t="inlineStr"/>
@@ -3444,7 +3436,7 @@
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
-          <t>W180 HWY 54</t>
+          <t>https://goo.gl/maps/kMzccLLaPd22</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
@@ -3452,7 +3444,7 @@
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr">
         <is>
-          <t>213 N MILWAUKEE</t>
+          <t>https://goo.gl/maps/dBrycqMgUwF2</t>
         </is>
       </c>
       <c r="W57" t="inlineStr"/>
@@ -3491,17 +3483,13 @@
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/kMzccLLaPd22</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/dBrycqMgUwF2</t>
-        </is>
-      </c>
+      <c r="V58" t="inlineStr"/>
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
@@ -3542,14 +3530,26 @@
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr"/>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>Optima, Equip</t>
+        </is>
+      </c>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
     </row>
@@ -3577,26 +3577,14 @@
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>ONEIDA #2024 TRAVEL CENTER, PULASKI</t>
         </is>
       </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V60" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W60" t="inlineStr">
-        <is>
-          <t>Optima, Equip</t>
-        </is>
-      </c>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
     </row>
@@ -3624,7 +3612,7 @@
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
         <is>
-          <t>ONEIDA #2024 TRAVEL CENTER, PULASKI</t>
+          <t>5939 OLD 29 DRIVE</t>
         </is>
       </c>
       <c r="S61" t="inlineStr"/>
@@ -3663,7 +3651,7 @@
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr">
         <is>
-          <t>5939 OLD 29 DRIVE</t>
+          <t>https://goo.gl/maps/P7gcbpqmHRw</t>
         </is>
       </c>
       <c r="S62" t="inlineStr"/>
@@ -3700,11 +3688,7 @@
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/P7gcbpqmHRw</t>
-        </is>
-      </c>
+      <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
@@ -3742,9 +3726,21 @@
         </is>
       </c>
       <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>Jerry S</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr"/>
@@ -3779,17 +3775,18 @@
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>White Camry
+Train w/ Jerry S</t>
         </is>
       </c>
       <c r="T65" t="inlineStr"/>
@@ -3826,18 +3823,17 @@
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>White Camry
-Train w/ Jerry S</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T66" t="inlineStr"/>
@@ -3874,12 +3870,12 @@
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
@@ -3921,12 +3917,12 @@
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
@@ -3962,21 +3958,9 @@
       </c>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>Marcia</t>
-        </is>
-      </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
       <c r="V69" t="inlineStr"/>

--- a/06-22-25 to 06-28-25 Milwaukee Schedule.xlsx
+++ b/06-22-25 to 06-28-25 Milwaukee Schedule.xlsx
@@ -1144,7 +1144,11 @@
           <t>Jerry D</t>
         </is>
       </c>
-      <c r="W17" t="inlineStr"/>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Until 11:30</t>
+        </is>
+      </c>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
     </row>

--- a/06-22-25 to 06-28-25 Milwaukee Schedule.xlsx
+++ b/06-22-25 to 06-28-25 Milwaukee Schedule.xlsx
@@ -1686,9 +1686,21 @@
       </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Josie</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
     </row>
@@ -1769,11 +1781,7 @@
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>COURTESY MEET</t>
-        </is>
-      </c>
+      <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
@@ -1822,7 +1830,7 @@
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr">
         <is>
-          <t>5:30 AM MEET BAYSHORE</t>
+          <t>COURTESY MEET</t>
         </is>
       </c>
       <c r="W30" t="inlineStr"/>
@@ -1873,7 +1881,7 @@
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:30 AM MEET BAYSHORE</t>
         </is>
       </c>
       <c r="W31" t="inlineStr"/>
@@ -1912,7 +1920,7 @@
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W32" t="inlineStr"/>
@@ -1963,7 +1971,7 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>DHILLON'S STATION 60 LLC, GRAFTON</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -2015,7 +2023,7 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>1185 N PORT WASHINGTON RD</t>
+          <t>DHILLON'S STATION 60 LLC, GRAFTON</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -2070,7 +2078,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/j6V8me3CPcLfC84u6</t>
+          <t>1185 N PORT WASHINGTON RD</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2135,7 +2143,11 @@
       </c>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/j6V8me3CPcLfC84u6</t>
+        </is>
+      </c>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
@@ -2193,22 +2205,9 @@
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>Driver,
-Santa Fe, Equip</t>
-        </is>
-      </c>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
     </row>
@@ -2271,17 +2270,18 @@
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Santa Fe, Equip</t>
         </is>
       </c>
       <c r="X38" t="inlineStr"/>
@@ -2350,15 +2350,19 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
     </row>
@@ -2403,8 +2407,16 @@
       </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Leyna</t>
+        </is>
+      </c>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
@@ -2498,11 +2510,7 @@
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="V42" t="inlineStr"/>
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
@@ -2563,7 +2571,7 @@
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr">
         <is>
-          <t>MODAS/WINTAKES</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
@@ -2626,7 +2634,7 @@
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr">
         <is>
-          <t>ROETTGERS SHOREWOOD ARC</t>
+          <t>MODAS/WINTAKES</t>
         </is>
       </c>
       <c r="W44" t="inlineStr"/>
@@ -2690,7 +2698,7 @@
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr">
         <is>
-          <t>1513 E CAPITOL DRIVE</t>
+          <t>ROETTGERS SHOREWOOD ARC</t>
         </is>
       </c>
       <c r="W45" t="inlineStr"/>
@@ -2763,7 +2771,7 @@
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/JvTBo1JUL5gfYk126</t>
+          <t>1513 E CAPITOL DRIVE</t>
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
@@ -2828,7 +2836,11 @@
       </c>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/JvTBo1JUL5gfYk126</t>
+        </is>
+      </c>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
@@ -2887,21 +2899,9 @@
         </is>
       </c>
       <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="W48" t="inlineStr">
-        <is>
-          <t>White Camry available, Equip</t>
-        </is>
-      </c>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
     </row>
@@ -2973,15 +2973,19 @@
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="W49" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>White Camry available, Equip</t>
+        </is>
+      </c>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
     </row>
@@ -3034,8 +3038,16 @@
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
@@ -3149,11 +3161,7 @@
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr">
-        <is>
-          <t>6:00 AM MEET WATERTOWN PLANK</t>
-        </is>
-      </c>
+      <c r="V52" t="inlineStr"/>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
@@ -3211,7 +3219,7 @@
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>6:00 AM MEET WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="W53" t="inlineStr"/>
@@ -3278,7 +3286,7 @@
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="W54" t="inlineStr"/>
@@ -3341,7 +3349,7 @@
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr">
         <is>
-          <t>CONDON OIL #195, THERESA</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W55" t="inlineStr"/>
@@ -3401,7 +3409,7 @@
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr">
         <is>
-          <t>213 N MILWAUKEE</t>
+          <t>CONDON OIL #195, THERESA</t>
         </is>
       </c>
       <c r="W56" t="inlineStr"/>
@@ -3448,7 +3456,7 @@
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/dBrycqMgUwF2</t>
+          <t>213 N MILWAUKEE</t>
         </is>
       </c>
       <c r="W57" t="inlineStr"/>
@@ -3493,7 +3501,11 @@
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/dBrycqMgUwF2</t>
+        </is>
+      </c>
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
@@ -3539,21 +3551,9 @@
       </c>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V59" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W59" t="inlineStr">
-        <is>
-          <t>Optima, Equip</t>
-        </is>
-      </c>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
     </row>
@@ -3586,9 +3586,21 @@
       </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr"/>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>Optima, Equip</t>
+        </is>
+      </c>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
     </row>

--- a/06-22-25 to 06-28-25 Milwaukee Schedule.xlsx
+++ b/06-22-25 to 06-28-25 Milwaukee Schedule.xlsx
@@ -1452,7 +1452,7 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
@@ -1578,7 +1578,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
@@ -1686,21 +1686,9 @@
       </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>Josie</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
     </row>
@@ -1781,7 +1769,11 @@
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>COURTESY MEET</t>
+        </is>
+      </c>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
@@ -1830,7 +1822,7 @@
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr">
         <is>
-          <t>COURTESY MEET</t>
+          <t>5:30 AM MEET BAYSHORE</t>
         </is>
       </c>
       <c r="W30" t="inlineStr"/>
@@ -1881,7 +1873,7 @@
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr">
         <is>
-          <t>5:30 AM MEET BAYSHORE</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W31" t="inlineStr"/>
@@ -1920,7 +1912,7 @@
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W32" t="inlineStr"/>
@@ -1971,7 +1963,7 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>DHILLON'S STATION 60 LLC, GRAFTON</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -2023,7 +2015,7 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>DHILLON'S STATION 60 LLC, GRAFTON</t>
+          <t>1185 N PORT WASHINGTON RD</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -2078,7 +2070,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>1185 N PORT WASHINGTON RD</t>
+          <t>https://maps.app.goo.gl/j6V8me3CPcLfC84u6</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2143,11 +2135,7 @@
       </c>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/j6V8me3CPcLfC84u6</t>
-        </is>
-      </c>
+      <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
@@ -2205,9 +2193,22 @@
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Driver,
+Santa Fe, Equip</t>
+        </is>
+      </c>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
     </row>
@@ -2270,18 +2271,17 @@
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>Driver,
-Santa Fe, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X38" t="inlineStr"/>
@@ -2350,19 +2350,15 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
     </row>
@@ -2407,16 +2403,8 @@
       </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>Leyna</t>
-        </is>
-      </c>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
@@ -2510,7 +2498,11 @@
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
@@ -2571,7 +2563,7 @@
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>MODAS/WINTAKES</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
@@ -2634,7 +2626,7 @@
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr">
         <is>
-          <t>MODAS/WINTAKES</t>
+          <t>ROETTGERS SHOREWOOD ARC</t>
         </is>
       </c>
       <c r="W44" t="inlineStr"/>
@@ -2698,7 +2690,7 @@
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr">
         <is>
-          <t>ROETTGERS SHOREWOOD ARC</t>
+          <t>1513 E CAPITOL DRIVE</t>
         </is>
       </c>
       <c r="W45" t="inlineStr"/>
@@ -2771,7 +2763,7 @@
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr">
         <is>
-          <t>1513 E CAPITOL DRIVE</t>
+          <t>https://maps.app.goo.gl/JvTBo1JUL5gfYk126</t>
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
@@ -2838,7 +2830,7 @@
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/JvTBo1JUL5gfYk126</t>
+          <t>Check in with DJ after (at Pewaukee)</t>
         </is>
       </c>
       <c r="W47" t="inlineStr"/>
@@ -3552,7 +3544,11 @@
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>Check in with DJ after (at Pewaukee)</t>
+        </is>
+      </c>
       <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
@@ -3586,21 +3582,9 @@
       </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V60" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W60" t="inlineStr">
-        <is>
-          <t>Optima, Equip</t>
-        </is>
-      </c>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
     </row>
@@ -3633,9 +3617,21 @@
       </c>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr"/>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>Optima, Equip</t>
+        </is>
+      </c>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
     </row>
